--- a/voltage_current_plots.xlsx
+++ b/voltage_current_plots.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="7005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="7005" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high light intensity" sheetId="3" r:id="rId1"/>
-    <sheet name="low light intensity (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="low light intensity" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="low light intensity (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="low light intensity" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
   <si>
     <t>R</t>
   </si>
@@ -44,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Vbat</t>
   </si>
 </sst>
 </file>
@@ -768,7 +772,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1427,6 +1430,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="631734184"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1439,7 +1443,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1521,7 +1524,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2108,6 +2110,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="506180864"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2120,7 +2123,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4227,7 +4229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:C14"/>
     </sheetView>
   </sheetViews>
@@ -4284,7 +4286,7 @@
         <v>22.7</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C13" si="0">A4*B4</f>
+        <f t="shared" ref="C4:C7" si="0">A4*B4</f>
         <v>226.09200000000001</v>
       </c>
       <c r="D4">
@@ -4376,6 +4378,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-0.31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-0.3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-0.32</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>-0.38</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-0.26</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>-0.3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-0.25</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>-0.21</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>-0.34</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>-0.35</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>-0.27</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>-0.3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -4595,7 +4794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>

--- a/voltage_current_plots.xlsx
+++ b/voltage_current_plots.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="7005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="7005" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="high light intensity" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="low light intensity (2)" sheetId="2" r:id="rId3"/>
-    <sheet name="low light intensity" sheetId="1" r:id="rId4"/>
+    <sheet name="shade10am" sheetId="5" r:id="rId1"/>
+    <sheet name="sunny10am" sheetId="4" r:id="rId2"/>
+    <sheet name="high light intensity" sheetId="3" r:id="rId3"/>
+    <sheet name="low light intensity (2)" sheetId="2" r:id="rId4"/>
+    <sheet name="low light intensity" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>R</t>
   </si>
@@ -48,6 +50,12 @@
   </si>
   <si>
     <t>Vbat</t>
+  </si>
+  <si>
+    <t>Ic</t>
+  </si>
+  <si>
+    <t>Pmax</t>
   </si>
 </sst>
 </file>
@@ -117,7 +125,1286 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>shade10am!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>shade10am!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>shade10am!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.73</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCB0-40E2-BE97-170469D887C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="327429584"/>
+        <c:axId val="327427616"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>shade10am!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>shade10am!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>shade10am!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.73</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FCB0-40E2-BE97-170469D887C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430316624"/>
+        <c:axId val="430312688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="327429584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327427616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="327427616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327429584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430312688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430316624"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430316624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="430312688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sunny10am!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sunny10am!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sunny10am!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>127.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.16999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>148.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2098-4918-A52D-A064E50DDB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="327429584"/>
+        <c:axId val="327427616"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>sunny10am!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>sunny10am!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>sunny10am!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>172.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>751.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1413.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1354.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1059.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>918.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>649.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>483.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>245.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>164.13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2098-4918-A52D-A064E50DDB1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430316624"/>
+        <c:axId val="430312688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="327429584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327427616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="327427616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327429584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430312688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430316624"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430316624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="430312688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -690,7 +1977,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -757,7 +2043,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1509,7 +2795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1524,6 +2810,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2123,6 +3410,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2152,6 +3440,717 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'low light intensity'!$E$23:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'low light intensity'!$F$23:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D3E-4EAF-93D8-CBE56CDF21F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="453121168"/>
+        <c:axId val="453118216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="453121168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453118216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="453118216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453121168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pmax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-661F-41E3-A41A-1E73C4859D5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="396476984"/>
+        <c:axId val="396470424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="396476984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396470424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="396470424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="396476984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2309,6 +4308,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3857,7 +6016,2143 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3894,7 +8189,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3929,7 +8224,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3947,6 +8242,71 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4227,15 +8587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4246,129 +8606,353 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10.5</v>
+        <v>0.15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>13.54</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <f>A2/(B2/1000)</f>
+        <v>11.078286558345642</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9.7799999999999994</v>
+        <v>0.32</v>
       </c>
       <c r="B3">
-        <v>44.9</v>
+        <v>13.52</v>
       </c>
       <c r="C3">
-        <f>A3*B3</f>
-        <v>439.12199999999996</v>
+        <v>4.32</v>
       </c>
       <c r="D3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="0">A3/(B3/1000)</f>
+        <v>23.668639053254442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.47</v>
+      </c>
+      <c r="B4">
+        <v>13.75</v>
+      </c>
+      <c r="C4">
+        <v>6.4</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>34.18181818181818</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.71</v>
+      </c>
+      <c r="B5">
+        <v>13.34</v>
+      </c>
+      <c r="C5">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>53.223388305847074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.88</v>
+      </c>
+      <c r="B6">
+        <v>13.98</v>
+      </c>
+      <c r="C6">
+        <v>12.33</v>
+      </c>
+      <c r="D6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>62.94706723891273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.01</v>
+      </c>
+      <c r="B7">
+        <v>12.96</v>
+      </c>
+      <c r="C7">
+        <v>13.14</v>
+      </c>
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>77.932098765432087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.18</v>
+      </c>
+      <c r="B8">
+        <v>12.84</v>
+      </c>
+      <c r="C8">
+        <v>15.14</v>
+      </c>
+      <c r="D8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>91.90031152647974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.4</v>
+      </c>
+      <c r="B9">
+        <v>13.19</v>
+      </c>
+      <c r="C9">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>106.14101592115237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.17</v>
+      </c>
+      <c r="B10">
+        <v>13.73</v>
+      </c>
+      <c r="C10">
+        <v>29.79</v>
+      </c>
+      <c r="D10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>158.04806991988346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2.62</v>
+      </c>
+      <c r="B11">
+        <v>11.92</v>
+      </c>
+      <c r="C11">
+        <v>31.22</v>
+      </c>
+      <c r="D11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E11">
         <v>220</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>219.79865771812081</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9.9600000000000009</v>
-      </c>
-      <c r="B4">
-        <v>22.7</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C7" si="0">A4*B4</f>
-        <v>226.09200000000001</v>
-      </c>
-      <c r="D4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5.58</v>
+      </c>
+      <c r="B12">
+        <v>12.56</v>
+      </c>
+      <c r="C12">
+        <v>70.06</v>
+      </c>
+      <c r="D12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E12">
         <v>440</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>444.26751592356686</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10.01</v>
-      </c>
-      <c r="B5">
-        <v>15.1</v>
-      </c>
-      <c r="C5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7.06</v>
+      </c>
+      <c r="B13">
+        <v>10.64</v>
+      </c>
+      <c r="C13">
+        <v>75.13</v>
+      </c>
+      <c r="D13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E13">
+        <v>660</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>151.15099999999998</v>
-      </c>
-      <c r="D5">
-        <v>660</v>
+        <v>663.53383458646613</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="B6">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="C6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7.86</v>
+      </c>
+      <c r="B14">
+        <v>7.73</v>
+      </c>
+      <c r="C14">
+        <v>60.73</v>
+      </c>
+      <c r="D14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>102.40799999999999</v>
-      </c>
-      <c r="D6">
-        <v>1000</v>
+        <v>1016.8175937904268</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="B7">
-        <v>8.1</v>
-      </c>
-      <c r="C7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="B15">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C15">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="D15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>81.405000000000001</v>
-      </c>
-      <c r="D7">
-        <v>1220</v>
+        <v>2019.2771084337351</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1440</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8.56</v>
+      </c>
+      <c r="B16">
+        <v>2.79</v>
+      </c>
+      <c r="C16">
+        <v>23.87</v>
+      </c>
+      <c r="D16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E16">
+        <v>3000</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3068.1003584229393</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>1660</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="B17">
+        <v>-0.18</v>
+      </c>
+      <c r="C17">
+        <v>-1.6</v>
+      </c>
+      <c r="D17">
+        <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>2660</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.01</v>
+      </c>
+      <c r="B18">
+        <v>15.03</v>
+      </c>
+      <c r="C18">
+        <v>0.19</v>
+      </c>
+      <c r="D18">
+        <v>4.0999999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4379,10 +8963,326 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.36</v>
+      </c>
+      <c r="B2">
+        <v>127.21</v>
+      </c>
+      <c r="C2">
+        <v>172.7</v>
+      </c>
+      <c r="D2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.05</v>
+      </c>
+      <c r="B3">
+        <v>47.56</v>
+      </c>
+      <c r="C3">
+        <v>49.95</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.87</v>
+      </c>
+      <c r="B4">
+        <v>154.16999999999999</v>
+      </c>
+      <c r="C4">
+        <v>751.38</v>
+      </c>
+      <c r="D4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8.56</v>
+      </c>
+      <c r="B5">
+        <v>165.16</v>
+      </c>
+      <c r="C5">
+        <v>1413.4</v>
+      </c>
+      <c r="D5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9.15</v>
+      </c>
+      <c r="B6">
+        <v>148.07</v>
+      </c>
+      <c r="C6">
+        <v>1354.21</v>
+      </c>
+      <c r="D6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9.36</v>
+      </c>
+      <c r="B7">
+        <v>128.22</v>
+      </c>
+      <c r="C7">
+        <v>1200.02</v>
+      </c>
+      <c r="D7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>9.4</v>
+      </c>
+      <c r="B8">
+        <v>112.68</v>
+      </c>
+      <c r="C8">
+        <v>1059.78</v>
+      </c>
+      <c r="D8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9.73</v>
+      </c>
+      <c r="B9">
+        <v>94.35</v>
+      </c>
+      <c r="C9">
+        <v>918.12</v>
+      </c>
+      <c r="D9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="B10">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="C10">
+        <v>649.49</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10.19</v>
+      </c>
+      <c r="B11">
+        <v>47.43</v>
+      </c>
+      <c r="C11">
+        <v>483.45</v>
+      </c>
+      <c r="D11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10.32</v>
+      </c>
+      <c r="B12">
+        <v>23.8</v>
+      </c>
+      <c r="C12">
+        <v>245.65</v>
+      </c>
+      <c r="D12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E12">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10.35</v>
+      </c>
+      <c r="B13">
+        <v>15.86</v>
+      </c>
+      <c r="C13">
+        <v>164.13</v>
+      </c>
+      <c r="D13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E13">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10.37</v>
+      </c>
+      <c r="B14">
+        <v>10.42</v>
+      </c>
+      <c r="C14">
+        <v>108.09</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10.34</v>
+      </c>
+      <c r="B15">
+        <v>5.13</v>
+      </c>
+      <c r="C15">
+        <v>53.06</v>
+      </c>
+      <c r="D15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10.4</v>
+      </c>
+      <c r="B16">
+        <v>3.37</v>
+      </c>
+      <c r="C16">
+        <v>35.06</v>
+      </c>
+      <c r="D16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10.75</v>
+      </c>
+      <c r="B17">
+        <v>-0.17</v>
+      </c>
+      <c r="C17">
+        <v>-1.83</v>
+      </c>
+      <c r="D17">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.09</v>
+      </c>
+      <c r="B18">
+        <v>184.82</v>
+      </c>
+      <c r="C18">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="D18">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,183 +9298,138 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>10.5</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-0.31</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="B3">
-        <v>-0.3</v>
+        <v>44.9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <f>A3*B3</f>
+        <v>439.12199999999996</v>
       </c>
       <c r="D3">
-        <v>4.0999999999999996</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="B4">
-        <v>-0.32</v>
+        <v>22.7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" ref="C4:C7" si="0">A4*B4</f>
+        <v>226.09200000000001</v>
       </c>
       <c r="D4">
-        <v>4.0999999999999996</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0</v>
+        <v>10.01</v>
       </c>
       <c r="B5">
-        <v>-0.38</v>
+        <v>15.1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>151.15099999999998</v>
       </c>
       <c r="D5">
-        <v>4.0999999999999996</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="B6">
-        <v>-0.26</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>102.40799999999999</v>
       </c>
       <c r="D6">
-        <v>4.0999999999999996</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="B7">
-        <v>-0.3</v>
+        <v>8.1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>81.405000000000001</v>
       </c>
       <c r="D7">
-        <v>4.0999999999999996</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>-0.25</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>4.0999999999999996</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>-0.21</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>4.0999999999999996</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>-0.34</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>4.0999999999999996</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>-0.35</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>4.0999999999999996</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>-0.27</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>4.0999999999999996</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>-0.3</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>4.0999999999999996</v>
+        <v>2660</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -4794,12 +9649,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E23" sqref="E23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4988,6 +9843,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>5.2</v>
+      </c>
+      <c r="F23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>185</v>
+      </c>
+      <c r="F24">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>227</v>
+      </c>
+      <c r="B2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>210</v>
+      </c>
+      <c r="B3">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
